--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\co225-project-group16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA8263E-3DEF-446C-AE1A-B871408A1411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DB85EC-191C-40CD-8C2F-D7BA11056D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F046269E-66E1-4F7B-A10A-45718AB11466}"/>
   </bookViews>
@@ -34,9 +34,160 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> week</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> week</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> week</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> week</t>
+    </r>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Project Timeline</t>
+  </si>
+  <si>
+    <t>Preparation</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>GitHub Repositary and Wiki maintaining</t>
+  </si>
+  <si>
+    <t>Detail design and start developing backend</t>
+  </si>
+  <si>
+    <t>Develop frontend</t>
+  </si>
+  <si>
+    <t>Creating UI for mobile application</t>
+  </si>
+  <si>
+    <t>Finish milestone 01 and presentation</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,16 +195,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -61,12 +274,296 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,12 +878,583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8930779D-48F4-45DE-B343-A3118902BEE4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="2" max="31" width="4.5703125" customWidth="1"/>
+    <col min="32" max="33" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="4" spans="1:33" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="23"/>
+      <c r="P4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="23"/>
+      <c r="V4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="23"/>
+      <c r="X4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+    </row>
+    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P16" s="28"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="68">
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="N5:AC12"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F8:M8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A1:AE2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\co225-project-group16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DB85EC-191C-40CD-8C2F-D7BA11056D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63560D5-47A1-4C72-A16A-DFBDF16E76B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F046269E-66E1-4F7B-A10A-45718AB11466}"/>
   </bookViews>
@@ -438,130 +438,130 @@
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8930779D-48F4-45DE-B343-A3118902BEE4}">
   <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,517 +892,527 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7" t="s">
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="7" t="s">
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
     </row>
     <row r="4" spans="1:33" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="8"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="23"/>
+      <c r="O4" s="25"/>
       <c r="P4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="23"/>
+      <c r="Q4" s="25"/>
       <c r="R4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="S4" s="23"/>
+      <c r="S4" s="25"/>
       <c r="T4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="23"/>
+      <c r="U4" s="25"/>
       <c r="V4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="W4" s="23"/>
-      <c r="X4" s="29" t="s">
+      <c r="W4" s="25"/>
+      <c r="X4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="30"/>
+      <c r="Y4" s="28"/>
       <c r="Z4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="AA4" s="23"/>
+      <c r="AA4" s="25"/>
       <c r="AB4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="7" t="s">
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="11" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="P16" s="28"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
+      <c r="P16" s="7"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="N5:AC12"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="R3:Y3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
+  <mergeCells count="67">
+    <mergeCell ref="A1:AE2"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="F8:M8"/>
@@ -1417,41 +1427,30 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="R3:Y3"/>
     <mergeCell ref="R4:S4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A1:AE2"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="N5:AC12"/>
+    <mergeCell ref="AD5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
